--- a/REGULAR/HRMO/OCAMPO, EDRALYN BAES.xlsx
+++ b/REGULAR/HRMO/OCAMPO, EDRALYN BAES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\HRMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02AF78-0E96-4C5A-8ECF-A59FAAE8E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="355">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1092,12 +1093,18 @@
   </si>
   <si>
     <t>UT(0-2-49)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/3-4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1336,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1506,9 +1513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1804,7 +1808,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1821,25 +1825,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K502" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K505" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2146,97 +2150,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K502"/>
+  <dimension ref="A2:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A485" activePane="bottomLeft"/>
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="K501" sqref="K501"/>
+      <pane ySplit="3696" topLeftCell="A485" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2244,7 +2248,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2257,24 +2261,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2318,7 +2322,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.64599999999999</v>
+        <v>164.14599999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2328,12 +2332,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>207.33299999999997</v>
+        <v>207.83299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2355,7 +2359,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35450</v>
       </c>
@@ -2375,7 +2379,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35462</v>
       </c>
@@ -2395,7 +2399,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35490</v>
       </c>
@@ -2415,7 +2419,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35521</v>
       </c>
@@ -2435,7 +2439,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35551</v>
       </c>
@@ -2455,7 +2459,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35582</v>
       </c>
@@ -2475,7 +2479,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35612</v>
       </c>
@@ -2495,7 +2499,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35643</v>
       </c>
@@ -2515,7 +2519,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35674</v>
       </c>
@@ -2535,7 +2539,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35704</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>37895</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -2581,7 +2585,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -2599,7 +2603,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>35735</v>
       </c>
@@ -2619,7 +2623,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35765</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>50</v>
@@ -2665,7 +2669,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>51</v>
       </c>
@@ -2683,7 +2687,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>35796</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -2725,7 +2729,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35827</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>35855</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -2793,7 +2797,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35886</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>49</v>
@@ -2839,7 +2843,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -2857,7 +2861,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>35916</v>
       </c>
@@ -2881,7 +2885,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>35947</v>
       </c>
@@ -2905,7 +2909,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>35977</v>
       </c>
@@ -2929,7 +2933,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36008</v>
       </c>
@@ -2949,7 +2953,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36039</v>
       </c>
@@ -2973,7 +2977,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36069</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36100</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>59</v>
@@ -3043,7 +3047,7 @@
         <v>46707</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3061,7 +3065,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36130</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -3107,7 +3111,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -3129,7 +3133,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>62</v>
       </c>
@@ -3147,7 +3151,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36161</v>
       </c>
@@ -3171,7 +3175,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36192</v>
       </c>
@@ -3195,7 +3199,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36220</v>
       </c>
@@ -3219,7 +3223,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36251</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -3265,7 +3269,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>48</v>
@@ -3287,7 +3291,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>66</v>
@@ -3309,7 +3313,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36311</v>
       </c>
@@ -3333,7 +3337,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36341</v>
       </c>
@@ -3357,7 +3361,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36372</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>70</v>
@@ -3403,7 +3407,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36403</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>71</v>
@@ -3449,7 +3453,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36433</v>
       </c>
@@ -3473,7 +3477,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36464</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>73</v>
@@ -3519,7 +3523,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>74</v>
@@ -3541,7 +3545,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36494</v>
       </c>
@@ -3565,7 +3569,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>36525</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>76</v>
@@ -3611,7 +3615,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>77</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>36556</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>48</v>
@@ -3675,7 +3679,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>78</v>
@@ -3697,7 +3701,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36585</v>
       </c>
@@ -3721,7 +3725,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36616</v>
       </c>
@@ -3745,7 +3749,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>73</v>
@@ -3767,7 +3771,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>49</v>
@@ -3789,7 +3793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>48</v>
@@ -3811,7 +3815,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>80</v>
@@ -3833,7 +3837,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>36646</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36677</v>
       </c>
@@ -3881,7 +3885,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36707</v>
       </c>
@@ -3905,7 +3909,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36738</v>
       </c>
@@ -3929,7 +3933,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36769</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>84</v>
@@ -3975,7 +3979,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>85</v>
@@ -3997,7 +4001,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>36799</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>86</v>
@@ -4043,7 +4047,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>36830</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36860</v>
       </c>
@@ -4087,7 +4091,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>36891</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>88</v>
@@ -4133,7 +4137,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>89</v>
       </c>
@@ -4151,7 +4155,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>36922</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>36950</v>
       </c>
@@ -4197,7 +4201,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>84</v>
@@ -4219,7 +4223,7 @@
         <v>46806</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>48</v>
@@ -4241,7 +4245,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>92</v>
@@ -4263,7 +4267,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36981</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>49</v>
@@ -4309,7 +4313,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>93</v>
@@ -4329,7 +4333,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>37011</v>
       </c>
@@ -4353,7 +4357,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37042</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -4399,7 +4403,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>48</v>
@@ -4421,7 +4425,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>95</v>
@@ -4443,7 +4447,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37072</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>48</v>
@@ -4489,7 +4493,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -4511,7 +4515,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>82</v>
@@ -4533,7 +4537,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37103</v>
       </c>
@@ -4557,7 +4561,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37134</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -4603,7 +4607,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="15" t="s">
         <v>84</v>
@@ -4625,7 +4629,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>93</v>
@@ -4647,7 +4651,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37164</v>
       </c>
@@ -4671,7 +4675,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>98</v>
@@ -4693,7 +4697,7 @@
         <v>38627</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>99</v>
@@ -4715,7 +4719,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37195</v>
       </c>
@@ -4739,7 +4743,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37225</v>
       </c>
@@ -4763,7 +4767,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37256</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>103</v>
@@ -4809,7 +4813,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>102</v>
       </c>
@@ -4827,7 +4831,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37287</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>104</v>
@@ -4873,7 +4877,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37315</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>48</v>
@@ -4919,7 +4923,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>105</v>
@@ -4941,7 +4945,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37346</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>48</v>
@@ -4987,7 +4991,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>81</v>
@@ -5007,7 +5011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>106</v>
@@ -5029,7 +5033,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37376</v>
       </c>
@@ -5051,7 +5055,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>91</v>
@@ -5073,7 +5077,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37407</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>49</v>
@@ -5119,7 +5123,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>64</v>
@@ -5141,7 +5145,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37437</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>48</v>
@@ -5189,7 +5193,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>37468</v>
       </c>
@@ -5209,7 +5213,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37499</v>
       </c>
@@ -5229,7 +5233,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37529</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>48</v>
@@ -5275,7 +5279,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>47</v>
@@ -5299,7 +5303,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>37560</v>
       </c>
@@ -5319,7 +5323,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37590</v>
       </c>
@@ -5343,7 +5347,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>97</v>
@@ -5367,7 +5371,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>37621</v>
       </c>
@@ -5387,7 +5391,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>108</v>
       </c>
@@ -5405,7 +5409,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
         <v>37652</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>37680</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>37711</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>49</v>
@@ -5501,7 +5505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>48</v>
@@ -5525,7 +5529,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>37712</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>37772</v>
       </c>
@@ -5571,7 +5575,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>37802</v>
       </c>
@@ -5591,7 +5595,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>37833</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -5635,7 +5639,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37864</v>
       </c>
@@ -5655,7 +5659,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>37894</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>37925</v>
       </c>
@@ -5701,7 +5705,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>37955</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>37986</v>
       </c>
@@ -5747,7 +5751,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="48" t="s">
         <v>109</v>
       </c>
@@ -5765,7 +5769,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38017</v>
       </c>
@@ -5789,7 +5793,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38045</v>
       </c>
@@ -5813,7 +5817,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38047</v>
       </c>
@@ -5837,7 +5841,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38107</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>84</v>
@@ -5881,7 +5885,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>112</v>
@@ -5903,7 +5907,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38138</v>
       </c>
@@ -5927,7 +5931,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38168</v>
       </c>
@@ -5951,7 +5955,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38169</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>74</v>
@@ -5997,7 +6001,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>38230</v>
       </c>
@@ -6021,7 +6025,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>38260</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38291</v>
       </c>
@@ -6071,7 +6075,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>48</v>
@@ -6093,7 +6097,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>73</v>
@@ -6115,7 +6119,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>48</v>
@@ -6137,7 +6141,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="15" t="s">
         <v>116</v>
@@ -6156,7 +6160,7 @@
       <c r="J180" s="12"/>
       <c r="K180" s="15"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38321</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>84</v>
@@ -6202,7 +6206,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
@@ -6220,7 +6224,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>38352</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>117</v>
@@ -6266,7 +6270,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="48" t="s">
         <v>118</v>
       </c>
@@ -6284,7 +6288,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38353</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>38411</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>73</v>
@@ -6356,7 +6360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>81</v>
@@ -6376,7 +6380,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38442</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>125</v>
@@ -6422,7 +6426,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>38472</v>
       </c>
@@ -6446,7 +6450,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38503</v>
       </c>
@@ -6470,7 +6474,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38533</v>
       </c>
@@ -6494,7 +6498,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>48</v>
@@ -6513,7 +6517,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38564</v>
       </c>
@@ -6537,7 +6541,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>38595</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>131</v>
@@ -6583,7 +6587,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>38596</v>
       </c>
@@ -6607,7 +6611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>133</v>
@@ -6629,7 +6633,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>38656</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>48</v>
@@ -6675,7 +6679,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>136</v>
@@ -6697,7 +6701,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38686</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>138</v>
@@ -6743,7 +6747,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38717</v>
       </c>
@@ -6767,7 +6771,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="48" t="s">
         <v>140</v>
       </c>
@@ -6785,7 +6789,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>38718</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38776</v>
       </c>
@@ -6829,7 +6833,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38807</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -6875,7 +6879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>38837</v>
       </c>
@@ -6899,7 +6903,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>81</v>
@@ -6921,7 +6925,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>73</v>
@@ -6943,7 +6947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38868</v>
       </c>
@@ -6963,7 +6967,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38898</v>
       </c>
@@ -6983,7 +6987,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41">
         <v>38929</v>
       </c>
@@ -7003,7 +7007,7 @@
       <c r="J218" s="12"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38960</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>38990</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>69</v>
@@ -7075,7 +7079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>48</v>
@@ -7097,7 +7101,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>73</v>
@@ -7119,7 +7123,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13">
@@ -7137,7 +7141,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>39021</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>48</v>
@@ -7185,7 +7189,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39051</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39082</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>49</v>
@@ -7257,7 +7261,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -7275,7 +7279,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>154</v>
       </c>
@@ -7293,7 +7297,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39113</v>
       </c>
@@ -7317,7 +7321,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>81</v>
@@ -7337,7 +7341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39141</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>39172</v>
       </c>
@@ -7387,7 +7391,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41">
         <v>39202</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39233</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39263</v>
       </c>
@@ -7459,7 +7463,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39294</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>48</v>
@@ -7507,7 +7511,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>48</v>
@@ -7529,7 +7533,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39325</v>
       </c>
@@ -7549,7 +7553,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39355</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39386</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13">
@@ -7617,7 +7621,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>39416</v>
       </c>
@@ -7637,7 +7641,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>39447</v>
       </c>
@@ -7657,7 +7661,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="48" t="s">
         <v>163</v>
       </c>
@@ -7675,7 +7679,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41">
         <v>39478</v>
       </c>
@@ -7695,7 +7699,7 @@
       <c r="J249" s="12"/>
       <c r="K249" s="15"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39506</v>
       </c>
@@ -7721,7 +7725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39538</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>165</v>
@@ -7767,7 +7771,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>48</v>
@@ -7789,7 +7793,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39568</v>
       </c>
@@ -7809,7 +7813,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41">
         <v>39599</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>169</v>
@@ -7855,7 +7859,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39629</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>171</v>
@@ -7901,7 +7905,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>39660</v>
       </c>
@@ -7925,7 +7929,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39691</v>
       </c>
@@ -7949,7 +7953,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>39721</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>49</v>
@@ -7995,7 +7999,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>176</v>
@@ -8017,7 +8021,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39752</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>178</v>
@@ -8063,7 +8067,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39782</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>180</v>
@@ -8109,7 +8113,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>39813</v>
       </c>
@@ -8129,7 +8133,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="48" t="s">
         <v>181</v>
       </c>
@@ -8147,7 +8151,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>39844</v>
       </c>
@@ -8169,7 +8173,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>48</v>
@@ -8193,7 +8197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39872</v>
       </c>
@@ -8217,7 +8221,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39903</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>39933</v>
       </c>
@@ -8267,7 +8271,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>39964</v>
       </c>
@@ -8291,7 +8295,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>73</v>
@@ -8313,7 +8317,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>187</v>
@@ -8335,7 +8339,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39994</v>
       </c>
@@ -8359,7 +8363,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>49</v>
@@ -8381,7 +8385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40" t="s">
         <v>191</v>
       </c>
@@ -8401,7 +8405,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>40056</v>
       </c>
@@ -8421,7 +8425,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40086</v>
       </c>
@@ -8445,7 +8449,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>192</v>
@@ -8467,7 +8471,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>40117</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>195</v>
@@ -8513,7 +8517,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40147</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>197</v>
@@ -8557,7 +8561,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40178</v>
       </c>
@@ -8577,7 +8581,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="55" t="s">
         <v>198</v>
       </c>
@@ -8595,7 +8599,7 @@
       <c r="J289" s="12"/>
       <c r="K289" s="15"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>40209</v>
       </c>
@@ -8619,7 +8623,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40237</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>201</v>
@@ -8665,7 +8669,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>40238</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>73</v>
@@ -8711,7 +8715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>203</v>
@@ -8733,7 +8737,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40298</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>97</v>
@@ -8779,7 +8783,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>206</v>
@@ -8799,7 +8803,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40329</v>
       </c>
@@ -8823,7 +8827,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40359</v>
       </c>
@@ -8847,7 +8851,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>40390</v>
       </c>
@@ -8867,7 +8871,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40421</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="41">
         <v>40451</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>211</v>
@@ -8937,7 +8941,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40482</v>
       </c>
@@ -8961,7 +8965,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>73</v>
@@ -8985,7 +8989,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>40512</v>
       </c>
@@ -9005,7 +9009,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40543</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="48" t="s">
         <v>215</v>
       </c>
@@ -9049,7 +9053,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>40544</v>
       </c>
@@ -9073,7 +9077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40602</v>
       </c>
@@ -9093,7 +9097,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>40633</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>40663</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -9159,7 +9163,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>40694</v>
       </c>
@@ -9179,7 +9183,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40724</v>
       </c>
@@ -9199,7 +9203,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>40755</v>
       </c>
@@ -9219,7 +9223,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40786</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>49</v>
@@ -9267,7 +9271,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>40816</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>40847</v>
       </c>
@@ -9313,7 +9317,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="41">
         <v>40877</v>
       </c>
@@ -9333,7 +9337,7 @@
       <c r="J322" s="12"/>
       <c r="K322" s="15"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40908</v>
       </c>
@@ -9353,7 +9357,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="48" t="s">
         <v>221</v>
       </c>
@@ -9371,7 +9375,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>40939</v>
       </c>
@@ -9391,7 +9395,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>40967</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>69</v>
@@ -9437,7 +9441,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>91</v>
@@ -9457,7 +9461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40999</v>
       </c>
@@ -9483,7 +9487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>41029</v>
       </c>
@@ -9509,7 +9513,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>41060</v>
       </c>
@@ -9533,7 +9537,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>49</v>
@@ -9557,7 +9561,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>41090</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41121</v>
       </c>
@@ -9603,7 +9607,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41152</v>
       </c>
@@ -9623,7 +9627,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>41182</v>
       </c>
@@ -9649,7 +9653,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>41213</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>231</v>
@@ -9697,7 +9701,7 @@
         <v>42679</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>41243</v>
       </c>
@@ -9717,7 +9721,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41274</v>
       </c>
@@ -9737,7 +9741,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="48" t="s">
         <v>232</v>
       </c>
@@ -9755,7 +9759,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>41305</v>
       </c>
@@ -9779,7 +9783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>41333</v>
       </c>
@@ -9799,7 +9803,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>41364</v>
       </c>
@@ -9823,7 +9827,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>81</v>
@@ -9845,7 +9849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41394</v>
       </c>
@@ -9865,7 +9869,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>41425</v>
       </c>
@@ -9885,7 +9889,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>41455</v>
       </c>
@@ -9905,7 +9909,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>41486</v>
       </c>
@@ -9925,7 +9929,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>41517</v>
       </c>
@@ -9945,7 +9949,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>41547</v>
       </c>
@@ -9971,7 +9975,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>41578</v>
       </c>
@@ -9991,7 +9995,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>41608</v>
       </c>
@@ -10011,7 +10015,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>41639</v>
       </c>
@@ -10031,7 +10035,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="48" t="s">
         <v>235</v>
       </c>
@@ -10049,7 +10053,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>41670</v>
       </c>
@@ -10069,7 +10073,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>41698</v>
       </c>
@@ -10089,7 +10093,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="41">
         <v>41729</v>
       </c>
@@ -10113,7 +10117,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>41759</v>
       </c>
@@ -10133,7 +10137,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41790</v>
       </c>
@@ -10153,7 +10157,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41790</v>
       </c>
@@ -10173,7 +10177,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41820</v>
       </c>
@@ -10193,7 +10197,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>41851</v>
       </c>
@@ -10213,7 +10217,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>41882</v>
       </c>
@@ -10233,7 +10237,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>41912</v>
       </c>
@@ -10259,7 +10263,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>41943</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>41973</v>
       </c>
@@ -10303,7 +10307,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>42004</v>
       </c>
@@ -10327,7 +10331,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="48" t="s">
         <v>240</v>
       </c>
@@ -10345,7 +10349,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>42035</v>
       </c>
@@ -10365,7 +10369,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42063</v>
       </c>
@@ -10385,7 +10389,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>42094</v>
       </c>
@@ -10409,7 +10413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>42124</v>
       </c>
@@ -10429,7 +10433,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>42155</v>
       </c>
@@ -10453,7 +10457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>42185</v>
       </c>
@@ -10473,7 +10477,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>42216</v>
       </c>
@@ -10493,7 +10497,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>42247</v>
       </c>
@@ -10513,7 +10517,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>42277</v>
       </c>
@@ -10537,7 +10541,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="41">
         <v>42308</v>
       </c>
@@ -10557,7 +10561,7 @@
       <c r="J379" s="12"/>
       <c r="K379" s="15"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>407551</v>
       </c>
@@ -10577,7 +10581,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>42369</v>
       </c>
@@ -10601,7 +10605,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="48" t="s">
         <v>244</v>
       </c>
@@ -10619,7 +10623,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42400</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>42428</v>
       </c>
@@ -10663,7 +10667,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>42460</v>
       </c>
@@ -10683,7 +10687,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>42490</v>
       </c>
@@ -10703,7 +10707,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>42521</v>
       </c>
@@ -10723,7 +10727,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>42551</v>
       </c>
@@ -10743,7 +10747,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>42582</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>42613</v>
       </c>
@@ -10789,7 +10793,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>42643</v>
       </c>
@@ -10813,7 +10817,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>69</v>
@@ -10837,7 +10841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>42674</v>
       </c>
@@ -10857,7 +10861,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>42704</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>42735</v>
       </c>
@@ -10903,7 +10907,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="48" t="s">
         <v>249</v>
       </c>
@@ -10921,7 +10925,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>42766</v>
       </c>
@@ -10941,7 +10945,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>42794</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>47</v>
@@ -10987,7 +10991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>42825</v>
       </c>
@@ -11007,7 +11011,7 @@
       <c r="J400" s="12"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>42855</v>
       </c>
@@ -11027,7 +11031,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>42886</v>
       </c>
@@ -11051,7 +11055,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>49</v>
@@ -11073,7 +11077,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42916</v>
       </c>
@@ -11093,7 +11097,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>42947</v>
       </c>
@@ -11113,7 +11117,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42978</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>73</v>
@@ -11161,7 +11165,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>49</v>
@@ -11183,7 +11187,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43008</v>
       </c>
@@ -11203,7 +11207,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>43039</v>
       </c>
@@ -11223,7 +11227,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>43069</v>
       </c>
@@ -11243,7 +11247,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>43100</v>
       </c>
@@ -11263,7 +11267,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="48" t="s">
         <v>254</v>
       </c>
@@ -11281,7 +11285,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43131</v>
       </c>
@@ -11305,7 +11309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>43159</v>
       </c>
@@ -11325,7 +11329,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>43190</v>
       </c>
@@ -11345,7 +11349,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>43220</v>
       </c>
@@ -11365,7 +11369,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>43251</v>
       </c>
@@ -11389,7 +11393,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>81</v>
@@ -11411,7 +11415,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>43281</v>
       </c>
@@ -11431,7 +11435,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43312</v>
       </c>
@@ -11457,7 +11461,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43343</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>43373</v>
       </c>
@@ -11509,7 +11513,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="41">
         <v>43404</v>
       </c>
@@ -11529,7 +11533,7 @@
       <c r="J424" s="12"/>
       <c r="K424" s="15"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>43434</v>
       </c>
@@ -11549,7 +11553,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43465</v>
       </c>
@@ -11573,7 +11577,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>261</v>
       </c>
@@ -11591,7 +11595,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43496</v>
       </c>
@@ -11611,7 +11615,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43524</v>
       </c>
@@ -11631,7 +11635,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43555</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>81</v>
@@ -11675,7 +11679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>43585</v>
       </c>
@@ -11695,7 +11699,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43616</v>
       </c>
@@ -11719,7 +11723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>43646</v>
       </c>
@@ -11739,7 +11743,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43677</v>
       </c>
@@ -11759,7 +11763,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43708</v>
       </c>
@@ -11779,7 +11783,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43738</v>
       </c>
@@ -11799,7 +11803,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43769</v>
       </c>
@@ -11819,7 +11823,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43799</v>
       </c>
@@ -11839,7 +11843,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43830</v>
       </c>
@@ -11863,7 +11867,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="48" t="s">
         <v>262</v>
       </c>
@@ -11881,7 +11885,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43861</v>
       </c>
@@ -11901,7 +11905,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43889</v>
       </c>
@@ -11921,7 +11925,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43921</v>
       </c>
@@ -11941,7 +11945,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43951</v>
       </c>
@@ -11961,7 +11965,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43982</v>
       </c>
@@ -11981,7 +11985,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>44012</v>
       </c>
@@ -12001,7 +12005,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>44043</v>
       </c>
@@ -12021,7 +12025,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>44074</v>
       </c>
@@ -12041,7 +12045,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44104</v>
       </c>
@@ -12061,7 +12065,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44135</v>
       </c>
@@ -12081,7 +12085,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44165</v>
       </c>
@@ -12101,7 +12105,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="41">
         <v>44196</v>
       </c>
@@ -12125,7 +12129,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="55" t="s">
         <v>264</v>
       </c>
@@ -12143,7 +12147,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44227</v>
       </c>
@@ -12163,7 +12167,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44255</v>
       </c>
@@ -12183,7 +12187,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>44286</v>
       </c>
@@ -12203,7 +12207,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44316</v>
       </c>
@@ -12223,7 +12227,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44347</v>
       </c>
@@ -12243,7 +12247,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44377</v>
       </c>
@@ -12263,7 +12267,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44408</v>
       </c>
@@ -12283,7 +12287,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44439</v>
       </c>
@@ -12303,7 +12307,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>44469</v>
       </c>
@@ -12323,7 +12327,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>44500</v>
       </c>
@@ -12343,7 +12347,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44530</v>
       </c>
@@ -12363,7 +12367,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44561</v>
       </c>
@@ -12387,7 +12391,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="48" t="s">
         <v>265</v>
       </c>
@@ -12405,7 +12409,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>44592</v>
       </c>
@@ -12429,7 +12433,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>91</v>
@@ -12451,7 +12455,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>44620</v>
       </c>
@@ -12471,7 +12475,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>44651</v>
       </c>
@@ -12495,7 +12499,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -12517,7 +12521,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>81</v>
@@ -12539,7 +12543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>352</v>
@@ -12559,7 +12563,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="50"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44681</v>
       </c>
@@ -12585,7 +12589,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>351</v>
@@ -12607,7 +12611,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44712</v>
       </c>
@@ -12633,7 +12637,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>44742</v>
       </c>
@@ -12653,7 +12657,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44773</v>
       </c>
@@ -12673,7 +12677,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44804</v>
       </c>
@@ -12699,7 +12703,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44834</v>
       </c>
@@ -12725,7 +12729,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44865</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>350</v>
@@ -12771,7 +12775,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44895</v>
       </c>
@@ -12791,7 +12795,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="41">
         <v>44926</v>
       </c>
@@ -12817,7 +12821,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>349</v>
@@ -12837,7 +12841,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="58" t="s">
         <v>339</v>
       </c>
@@ -12855,7 +12859,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44927</v>
       </c>
@@ -12875,7 +12879,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44958</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44986</v>
       </c>
@@ -12925,7 +12929,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>340</v>
@@ -12945,7 +12949,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45017</v>
       </c>
@@ -12965,7 +12969,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>45047</v>
       </c>
@@ -12991,7 +12995,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>346</v>
@@ -13013,7 +13017,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>346</v>
@@ -13035,7 +13039,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>45078</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>346</v>
@@ -13083,7 +13087,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>346</v>
@@ -13105,7 +13109,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>346</v>
@@ -13127,7 +13131,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="41">
         <v>45108</v>
       </c>
@@ -13153,20 +13157,22 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>45139</v>
       </c>
       <c r="B501" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C501" s="42"/>
+      <c r="C501" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H501" s="39">
         <v>1</v>
@@ -13177,23 +13183,85 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45170</v>
       </c>
       <c r="B502" s="20"/>
-      <c r="C502" s="42"/>
+      <c r="C502" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C503" s="13"/>
+      <c r="D503" s="39"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="39">
+        <v>2</v>
+      </c>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="39"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H504" s="39"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="39"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13210,10 +13278,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13236,41 +13304,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="68" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13299,7 +13367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -13323,17 +13391,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>343</v>
       </c>
@@ -13350,17 +13418,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>368.97899999999993</v>
+        <v>371.97899999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13388,7 +13456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13414,7 +13482,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13440,7 +13508,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13466,7 +13534,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13492,7 +13560,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13518,7 +13586,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13544,7 +13612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13570,7 +13638,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13590,7 +13658,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13610,7 +13678,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13630,7 +13698,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13651,7 +13719,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13672,7 +13740,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13693,7 +13761,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13714,7 +13782,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13735,7 +13803,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13756,7 +13824,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13777,7 +13845,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13798,7 +13866,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13819,7 +13887,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13840,7 +13908,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13861,7 +13929,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13882,7 +13950,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13903,7 +13971,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13924,7 +13992,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13945,7 +14013,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13966,7 +14034,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13987,7 +14055,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14008,7 +14076,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14029,7 +14097,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14050,7 +14118,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14059,7 +14127,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14068,7 +14136,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14077,7 +14145,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14086,7 +14154,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14095,7 +14163,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14104,7 +14172,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14113,7 +14181,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14122,7 +14190,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14131,7 +14199,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14140,7 +14208,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14149,7 +14217,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14158,7 +14226,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14167,7 +14235,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14176,7 +14244,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14185,7 +14253,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14194,7 +14262,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14203,7 +14271,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14212,7 +14280,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14221,7 +14289,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14230,7 +14298,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14239,7 +14307,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14248,7 +14316,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14257,7 +14325,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14266,7 +14334,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14275,7 +14343,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14284,7 +14352,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14293,7 +14361,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14302,7 +14370,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14311,7 +14379,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
